--- a/Depth Damaged States Attenuation Model - Orientation =  90, Width = 2, Circumference = Outside, Axial Location = 235/PCs at R'.xlsx
+++ b/Depth Damaged States Attenuation Model - Orientation =  90, Width = 2, Circumference = Outside, Axial Location = 235/PCs at R'.xlsx
@@ -396,10 +396,10 @@
         <v>7000</v>
       </c>
       <c r="B2">
-        <v>-0.2298647745139882</v>
+        <v>-0.3741840007719169</v>
       </c>
       <c r="C2">
-        <v>-0.2220531315450524</v>
+        <v>0.1617489680992558</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>7333.333333333333</v>
       </c>
       <c r="B3">
-        <v>-0.3201581297155366</v>
+        <v>-0.3707670419387925</v>
       </c>
       <c r="C3">
-        <v>0.02591990941267014</v>
+        <v>-0.0556500001594112</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>7666.666666666667</v>
       </c>
       <c r="B4">
-        <v>-0.4305255823078776</v>
+        <v>-0.2993579144914407</v>
       </c>
       <c r="C4">
-        <v>0.3195595180376237</v>
+        <v>-0.03839939671659583</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>8000</v>
       </c>
       <c r="B5">
-        <v>-0.4828982145635706</v>
+        <v>-0.4597506293178769</v>
       </c>
       <c r="C5">
-        <v>0.2417198210455371</v>
+        <v>0.2066116146750451</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>8333.333333333334</v>
       </c>
       <c r="B6">
-        <v>-0.4722692792070915</v>
+        <v>-0.2513257604274803</v>
       </c>
       <c r="C6">
-        <v>-0.2910940013245043</v>
+        <v>-0.2180752060329035</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>8666.666666666666</v>
       </c>
       <c r="B7">
-        <v>-0.2361080671287786</v>
+        <v>-0.1857160465210193</v>
       </c>
       <c r="C7">
-        <v>-0.5523211462210426</v>
+        <v>-0.597420264083446</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>9000</v>
       </c>
       <c r="B8">
-        <v>-0.1122502316467676</v>
+        <v>-0.3404843653286578</v>
       </c>
       <c r="C8">
-        <v>-0.004632864313273365</v>
+        <v>-0.2748291975235543</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>9333.333333333334</v>
       </c>
       <c r="B9">
-        <v>-0.2305054096559714</v>
+        <v>-0.3472996693999933</v>
       </c>
       <c r="C9">
-        <v>0.3575305433203778</v>
+        <v>0.07850268961801558</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>9666.666666666666</v>
       </c>
       <c r="B10">
-        <v>-0.1992950385726613</v>
+        <v>-0.1369763124766324</v>
       </c>
       <c r="C10">
-        <v>0.1297020871683469</v>
+        <v>0.3802984315508031</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>10000</v>
       </c>
       <c r="B11">
-        <v>-0.1687257685668667</v>
+        <v>-0.1399738320131171</v>
       </c>
       <c r="C11">
-        <v>-0.1598860770222729</v>
+        <v>0.1659283730374982</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10333.33333333333</v>
       </c>
       <c r="B12">
-        <v>-0.1004869183161486</v>
+        <v>-0.01916413571477676</v>
       </c>
       <c r="C12">
-        <v>-0.2564845081190594</v>
+        <v>-0.2875422526141986</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>10666.66666666667</v>
       </c>
       <c r="B13">
-        <v>-0.01546287961233248</v>
+        <v>-0.01240185226818955</v>
       </c>
       <c r="C13">
-        <v>-0.3083353541708663</v>
+        <v>-0.2670929223789246</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>11000</v>
       </c>
       <c r="B14">
-        <v>0.01546764072783748</v>
+        <v>0.1978784155580193</v>
       </c>
       <c r="C14">
-        <v>-0.2533185597777526</v>
+        <v>-0.232563517031517</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>11333.33333333333</v>
       </c>
       <c r="B15">
-        <v>0.03025106462348372</v>
+        <v>-0.08103037563712231</v>
       </c>
       <c r="C15">
-        <v>-0.05550845387261671</v>
+        <v>0.0628243135508008</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>11666.66666666667</v>
       </c>
       <c r="B16">
-        <v>-0.002305996901021654</v>
+        <v>-0.04720349089237135</v>
       </c>
       <c r="C16">
-        <v>-0.03409388728297229</v>
+        <v>-0.08339027837918121</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>12000</v>
       </c>
       <c r="B17">
-        <v>-0.04377823333553774</v>
+        <v>0.02245814608105134</v>
       </c>
       <c r="C17">
-        <v>0.01322239373895674</v>
+        <v>0.2219257256474202</v>
       </c>
     </row>
   </sheetData>

--- a/Depth Damaged States Attenuation Model - Orientation =  90, Width = 2, Circumference = Outside, Axial Location = 235/PCs at R'.xlsx
+++ b/Depth Damaged States Attenuation Model - Orientation =  90, Width = 2, Circumference = Outside, Axial Location = 235/PCs at R'.xlsx
@@ -396,10 +396,10 @@
         <v>7000</v>
       </c>
       <c r="B2">
-        <v>-0.3741840007719169</v>
+        <v>-0.3003816376580256</v>
       </c>
       <c r="C2">
-        <v>0.1617489680992558</v>
+        <v>0.01536372372024277</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -407,10 +407,10 @@
         <v>7333.333333333333</v>
       </c>
       <c r="B3">
-        <v>-0.3707670419387925</v>
+        <v>-0.2022429035621641</v>
       </c>
       <c r="C3">
-        <v>-0.0556500001594112</v>
+        <v>-0.1756534860214808</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>7666.666666666667</v>
       </c>
       <c r="B4">
-        <v>-0.2993579144914407</v>
+        <v>-0.4327485595522825</v>
       </c>
       <c r="C4">
-        <v>-0.03839939671659583</v>
+        <v>-0.6161972710371395</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>8000</v>
       </c>
       <c r="B5">
-        <v>-0.4597506293178769</v>
+        <v>-0.4703665893834659</v>
       </c>
       <c r="C5">
-        <v>0.2066116146750451</v>
+        <v>0.09538666474221985</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>8333.333333333334</v>
       </c>
       <c r="B6">
-        <v>-0.2513257604274803</v>
+        <v>-0.2422910077715766</v>
       </c>
       <c r="C6">
-        <v>-0.2180752060329035</v>
+        <v>-0.110860041128652</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>8666.666666666666</v>
       </c>
       <c r="B7">
-        <v>-0.1857160465210193</v>
+        <v>-0.173266634072466</v>
       </c>
       <c r="C7">
-        <v>-0.597420264083446</v>
+        <v>-0.157357012434773</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>9000</v>
       </c>
       <c r="B8">
-        <v>-0.3404843653286578</v>
+        <v>-0.2955884557500205</v>
       </c>
       <c r="C8">
-        <v>-0.2748291975235543</v>
+        <v>0.01647929363112344</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>9333.333333333334</v>
       </c>
       <c r="B9">
-        <v>-0.3472996693999933</v>
+        <v>-0.236576585766175</v>
       </c>
       <c r="C9">
-        <v>0.07850268961801558</v>
+        <v>0.154616845984686</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>9666.666666666666</v>
       </c>
       <c r="B10">
-        <v>-0.1369763124766324</v>
+        <v>-0.3892055465103567</v>
       </c>
       <c r="C10">
-        <v>0.3802984315508031</v>
+        <v>0.4135456418784163</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>10000</v>
       </c>
       <c r="B11">
-        <v>-0.1399738320131171</v>
+        <v>-0.09000876924643625</v>
       </c>
       <c r="C11">
-        <v>0.1659283730374982</v>
+        <v>0.05674661383638247</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10333.33333333333</v>
       </c>
       <c r="B12">
-        <v>-0.01916413571477676</v>
+        <v>-0.2000441421235869</v>
       </c>
       <c r="C12">
-        <v>-0.2875422526141986</v>
+        <v>0.2997334123492504</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>10666.66666666667</v>
       </c>
       <c r="B13">
-        <v>-0.01240185226818955</v>
+        <v>-0.08481858373001307</v>
       </c>
       <c r="C13">
-        <v>-0.2670929223789246</v>
+        <v>-0.06733761956078414</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>11000</v>
       </c>
       <c r="B14">
-        <v>0.1978784155580193</v>
+        <v>0.0691363050739195</v>
       </c>
       <c r="C14">
-        <v>-0.232563517031517</v>
+        <v>-0.2824363911205039</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>11333.33333333333</v>
       </c>
       <c r="B15">
-        <v>-0.08103037563712231</v>
+        <v>0.05584681469847915</v>
       </c>
       <c r="C15">
-        <v>0.0628243135508008</v>
+        <v>0.1236540056204973</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>11666.66666666667</v>
       </c>
       <c r="B16">
-        <v>-0.04720349089237135</v>
+        <v>-0.008431221782084357</v>
       </c>
       <c r="C16">
-        <v>-0.08339027837918121</v>
+        <v>0.2982481990021739</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>12000</v>
       </c>
       <c r="B17">
-        <v>0.02245814608105134</v>
+        <v>0.1162806633408986</v>
       </c>
       <c r="C17">
-        <v>0.2219257256474202</v>
+        <v>-0.2574018958885828</v>
       </c>
     </row>
   </sheetData>
